--- a/Assignment/00. Question Bank.xlsx
+++ b/Assignment/00. Question Bank.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naman Khurana\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE37534F-25B8-411A-91D3-FD8357318E7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="217">
   <si>
     <t>Question Heading</t>
   </si>
@@ -343,6 +334,18 @@
     <t>https://www.geeksforgeeks.org/longest-repeating-subsequence/</t>
   </si>
   <si>
+    <t>Largest word in dictionary by deleting some characters of given string</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-largest-word-dictionary-deleting-characters-given-string/</t>
+  </si>
+  <si>
+    <t>Given a sorted dictionary of an alien language, find order of characters</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/given-sorted-dictionary-find-precedence-characters/</t>
+  </si>
+  <si>
     <t>N-th Tribonacci Number</t>
   </si>
   <si>
@@ -361,6 +364,21 @@
     <t>Backtracking (Medium)</t>
   </si>
   <si>
+    <t>Combination Sum III</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-iii/</t>
+  </si>
+  <si>
+    <t>Word-Search II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-search-ii/</t>
+  </si>
+  <si>
+    <t>Backtracking (Hard)</t>
+  </si>
+  <si>
     <t>Letter Combinations of a Phone number</t>
   </si>
   <si>
@@ -439,64 +457,259 @@
     <t>https://leetcode.com/problems/linked-list-cycle-ii/</t>
   </si>
   <si>
+    <t>Rotate List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-list/</t>
+  </si>
+  <si>
+    <t>Rmove Duplicates from a Sorted List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list/</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-two-numbers/</t>
+  </si>
+  <si>
+    <t>Sort List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-list/</t>
+  </si>
+  <si>
+    <t>Next Greater in LinkedLists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-greater-node-in-linked-list/</t>
+  </si>
+  <si>
     <t>Remove Duplicates from Sorted Lists - II</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/</t>
   </si>
   <si>
-    <t xml:space="preserve">Total : </t>
+    <t>Merge K Sorted Lists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-k-sorted-lists/</t>
+  </si>
+  <si>
+    <t>LinkedList (Hard)</t>
+  </si>
+  <si>
+    <t>Maximum Depth of a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>Binary Tree (Easy)</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/invert-binary-tree/</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum/</t>
+  </si>
+  <si>
+    <t>Binary Tree Tilt</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-tilt/</t>
+  </si>
+  <si>
+    <t>Cousins in a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/cousins-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>Diameter of a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/diameter-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/symmetric-tree/</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balanced-binary-tree/</t>
+  </si>
+  <si>
+    <t>Right Side View</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-right-side-view/</t>
+  </si>
+  <si>
+    <t>Binary Tree (Medium)</t>
+  </si>
+  <si>
+    <t>Top View of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-nodes-top-view-binary-tree/</t>
+  </si>
+  <si>
+    <t>LCA of a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>Zig-zag Traversal of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>Iterative Inorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>Flatten Binary Tree to LinkedList</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-binary-tree-to-linked-list/</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/</t>
+  </si>
+  <si>
+    <t>Binary Tree (Hard)</t>
+  </si>
+  <si>
+    <t>Search in a BST</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Binary Search Tree (Easy)</t>
+  </si>
+  <si>
+    <t>LCA in BST</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Inorder Successor in BST</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/inorder-successor-in-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Largest BST subtree in a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-the-largest-subtree-in-a-tree-that-is-also-a-bst/</t>
+  </si>
+  <si>
+    <t>Binary Search Tree (Medium)</t>
+  </si>
+  <si>
+    <t>Delete Node in BST</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/binary-search-tree-set-2-delete/</t>
+  </si>
+  <si>
+    <t>Validate BST</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Insert into BST</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-into-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-trie-prefix-tree/</t>
+  </si>
+  <si>
+    <t>Trie (Medium)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="8">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="18.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF212121"/>
       <name val="-apple-system"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -512,53 +725,62 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="12">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -748,28 +970,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="43.88671875" customWidth="1"/>
-    <col min="2" max="2" width="90.109375" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="60.14"/>
+    <col customWidth="1" min="2" max="2" width="84.0"/>
+    <col customWidth="1" min="3" max="3" width="24.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,12 +999,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -796,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -807,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -818,10 +1037,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6">
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -832,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -843,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -854,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -865,7 +1084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -876,12 +1095,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -892,7 +1111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -903,7 +1122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -914,7 +1133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -925,7 +1144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -936,7 +1155,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -947,7 +1166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -958,7 +1177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -969,7 +1188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -980,10 +1199,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22">
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -994,7 +1213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1005,7 +1224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25">
       <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
@@ -1016,7 +1235,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1027,7 +1246,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -1038,10 +1257,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13.2">
+    <row r="28">
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" ht="13.2">
+    <row r="29">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
@@ -1052,7 +1271,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13.2">
+    <row r="30">
       <c r="A30" s="7" t="s">
         <v>56</v>
       </c>
@@ -1063,7 +1282,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13.2">
+    <row r="31">
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
@@ -1074,10 +1293,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13.2">
+    <row r="32">
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3" ht="13.2">
+    <row r="33">
       <c r="A33" s="2" t="s">
         <v>61</v>
       </c>
@@ -1088,7 +1307,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.2">
+    <row r="34">
       <c r="A34" s="8" t="s">
         <v>64</v>
       </c>
@@ -1099,7 +1318,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.2">
+    <row r="35">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -1110,7 +1329,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13.2">
+    <row r="36">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -1121,10 +1340,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="13.2">
+    <row r="37">
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3" ht="13.2">
+    <row r="38">
       <c r="A38" s="2" t="s">
         <v>71</v>
       </c>
@@ -1135,10 +1354,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="13.2">
+    <row r="39">
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:3" ht="13.2">
+    <row r="40">
       <c r="A40" s="2" t="s">
         <v>74</v>
       </c>
@@ -1149,7 +1368,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13.2">
+    <row r="41">
       <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
@@ -1160,7 +1379,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="13.2">
+    <row r="42">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
@@ -1171,10 +1390,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13.2">
+    <row r="43">
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3" ht="13.2">
+    <row r="44">
       <c r="A44" s="2" t="s">
         <v>82</v>
       </c>
@@ -1185,7 +1404,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.2">
+    <row r="45">
       <c r="A45" s="2" t="s">
         <v>85</v>
       </c>
@@ -1196,7 +1415,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.2">
+    <row r="46">
       <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
@@ -1207,10 +1426,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.2">
+    <row r="47">
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3" ht="13.2">
+    <row r="48">
       <c r="A48" s="9" t="s">
         <v>90</v>
       </c>
@@ -1221,7 +1440,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="13.2">
+    <row r="49">
       <c r="A49" s="2" t="s">
         <v>93</v>
       </c>
@@ -1232,7 +1451,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.2">
+    <row r="50">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -1243,7 +1462,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="13.2">
+    <row r="51">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
@@ -1254,7 +1473,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.2">
+    <row r="52">
       <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
@@ -1265,7 +1484,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.2">
+    <row r="53">
       <c r="A53" s="7" t="s">
         <v>103</v>
       </c>
@@ -1276,7 +1495,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13.2">
+    <row r="54">
       <c r="A54" s="2" t="s">
         <v>105</v>
       </c>
@@ -1287,145 +1506,145 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13.2">
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:3" ht="13.2">
-      <c r="A56" s="6" t="s">
+    <row r="55">
+      <c r="A55" s="7" t="s">
         <v>107</v>
       </c>
+      <c r="B55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="B56" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="13.2">
-      <c r="A57" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="13.2">
-      <c r="A58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="4" t="s">
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="13.2">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="13.2">
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="1:3" ht="13.2">
-      <c r="A61" s="6" t="s">
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="B60" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="B61" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="13.2">
-      <c r="A62" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="13.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="13.2">
-      <c r="A64" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="13.2">
-      <c r="A65" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="13.2">
-      <c r="A66" s="6" t="s">
         <v>128</v>
       </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="B66" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="13.2">
-      <c r="A67" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="13.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="13.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="2" t="s">
         <v>135</v>
       </c>
@@ -1433,100 +1652,3230 @@
         <v>136</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="13.2">
-      <c r="A70" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="13.2">
-      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="13.2">
-      <c r="B73" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="2">
-        <v>58</v>
-      </c>
+      <c r="B72" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" s="5"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" s="5"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" s="5"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="5"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="5"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="5"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="5"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="5"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="5"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="5"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="5"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="5"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="5"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="5"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="5"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="5"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="5"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="5"/>
+    </row>
+    <row r="126">
+      <c r="C126" s="5"/>
+    </row>
+    <row r="127">
+      <c r="C127" s="5"/>
+    </row>
+    <row r="128">
+      <c r="C128" s="5"/>
+    </row>
+    <row r="129">
+      <c r="C129" s="5"/>
+    </row>
+    <row r="130">
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131">
+      <c r="C131" s="5"/>
+    </row>
+    <row r="132">
+      <c r="C132" s="5"/>
+    </row>
+    <row r="133">
+      <c r="C133" s="5"/>
+    </row>
+    <row r="134">
+      <c r="C134" s="5"/>
+    </row>
+    <row r="135">
+      <c r="C135" s="5"/>
+    </row>
+    <row r="136">
+      <c r="C136" s="5"/>
+    </row>
+    <row r="137">
+      <c r="C137" s="5"/>
+    </row>
+    <row r="138">
+      <c r="C138" s="5"/>
+    </row>
+    <row r="139">
+      <c r="C139" s="5"/>
+    </row>
+    <row r="140">
+      <c r="C140" s="5"/>
+    </row>
+    <row r="141">
+      <c r="C141" s="5"/>
+    </row>
+    <row r="142">
+      <c r="C142" s="5"/>
+    </row>
+    <row r="143">
+      <c r="C143" s="5"/>
+    </row>
+    <row r="144">
+      <c r="C144" s="5"/>
+    </row>
+    <row r="145">
+      <c r="C145" s="5"/>
+    </row>
+    <row r="146">
+      <c r="C146" s="5"/>
+    </row>
+    <row r="147">
+      <c r="C147" s="5"/>
+    </row>
+    <row r="148">
+      <c r="C148" s="5"/>
+    </row>
+    <row r="149">
+      <c r="C149" s="5"/>
+    </row>
+    <row r="150">
+      <c r="C150" s="5"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="5"/>
+    </row>
+    <row r="152">
+      <c r="C152" s="5"/>
+    </row>
+    <row r="153">
+      <c r="C153" s="5"/>
+    </row>
+    <row r="154">
+      <c r="C154" s="5"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="5"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="5"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="5"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="5"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="5"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="5"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="5"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="5"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="5"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="5"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="5"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="5"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="5"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="5"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="5"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="5"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="5"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="5"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="5"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="5"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="5"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="5"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="5"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="5"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="5"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="5"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="5"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="5"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="5"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="5"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="5"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="5"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="5"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="5"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="5"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="5"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="5"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="5"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="5"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="5"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="5"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="5"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="5"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="5"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="5"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="5"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="5"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="5"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="5"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="5"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="5"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="5"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="5"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="5"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="5"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="5"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="5"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="5"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="5"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="5"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="5"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="5"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="5"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="5"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="5"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="5"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="5"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="5"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="5"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="5"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="5"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="5"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="5"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="5"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="5"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="5"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="5"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="5"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="5"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="5"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="5"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="5"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="5"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="5"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="5"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="5"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="5"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="5"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="5"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="5"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="5"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="5"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="5"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="5"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="5"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="5"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="5"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="5"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="5"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="5"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="5"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="5"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="5"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="5"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="5"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="5"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="5"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="5"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="5"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="5"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="5"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="5"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="5"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="5"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="5"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="5"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="5"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="5"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="5"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="5"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="5"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="5"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="5"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="5"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="5"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="5"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="5"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="5"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="5"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="5"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="5"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="5"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="5"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="5"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="5"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="5"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="5"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="5"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="5"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="5"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="5"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="5"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="5"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="5"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="5"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="5"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="5"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="5"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="5"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="5"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="5"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="5"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="5"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="5"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="5"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="5"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="5"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="5"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="5"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="5"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="5"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="5"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="5"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="5"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="5"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="5"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="5"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="5"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="5"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="5"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="5"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="5"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="5"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="5"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="5"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="5"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="5"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="5"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="5"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="5"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="5"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="5"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="5"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="5"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="5"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="5"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="5"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="5"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="5"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="5"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="5"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="5"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="5"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="5"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="5"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="5"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="5"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="5"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="5"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="5"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="5"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="5"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="5"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="5"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="5"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="5"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="5"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="5"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="5"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="5"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="5"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="5"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="5"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="5"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="5"/>
+    </row>
+    <row r="371">
+      <c r="C371" s="5"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="5"/>
+    </row>
+    <row r="373">
+      <c r="C373" s="5"/>
+    </row>
+    <row r="374">
+      <c r="C374" s="5"/>
+    </row>
+    <row r="375">
+      <c r="C375" s="5"/>
+    </row>
+    <row r="376">
+      <c r="C376" s="5"/>
+    </row>
+    <row r="377">
+      <c r="C377" s="5"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="5"/>
+    </row>
+    <row r="379">
+      <c r="C379" s="5"/>
+    </row>
+    <row r="380">
+      <c r="C380" s="5"/>
+    </row>
+    <row r="381">
+      <c r="C381" s="5"/>
+    </row>
+    <row r="382">
+      <c r="C382" s="5"/>
+    </row>
+    <row r="383">
+      <c r="C383" s="5"/>
+    </row>
+    <row r="384">
+      <c r="C384" s="5"/>
+    </row>
+    <row r="385">
+      <c r="C385" s="5"/>
+    </row>
+    <row r="386">
+      <c r="C386" s="5"/>
+    </row>
+    <row r="387">
+      <c r="C387" s="5"/>
+    </row>
+    <row r="388">
+      <c r="C388" s="5"/>
+    </row>
+    <row r="389">
+      <c r="C389" s="5"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="5"/>
+    </row>
+    <row r="391">
+      <c r="C391" s="5"/>
+    </row>
+    <row r="392">
+      <c r="C392" s="5"/>
+    </row>
+    <row r="393">
+      <c r="C393" s="5"/>
+    </row>
+    <row r="394">
+      <c r="C394" s="5"/>
+    </row>
+    <row r="395">
+      <c r="C395" s="5"/>
+    </row>
+    <row r="396">
+      <c r="C396" s="5"/>
+    </row>
+    <row r="397">
+      <c r="C397" s="5"/>
+    </row>
+    <row r="398">
+      <c r="C398" s="5"/>
+    </row>
+    <row r="399">
+      <c r="C399" s="5"/>
+    </row>
+    <row r="400">
+      <c r="C400" s="5"/>
+    </row>
+    <row r="401">
+      <c r="C401" s="5"/>
+    </row>
+    <row r="402">
+      <c r="C402" s="5"/>
+    </row>
+    <row r="403">
+      <c r="C403" s="5"/>
+    </row>
+    <row r="404">
+      <c r="C404" s="5"/>
+    </row>
+    <row r="405">
+      <c r="C405" s="5"/>
+    </row>
+    <row r="406">
+      <c r="C406" s="5"/>
+    </row>
+    <row r="407">
+      <c r="C407" s="5"/>
+    </row>
+    <row r="408">
+      <c r="C408" s="5"/>
+    </row>
+    <row r="409">
+      <c r="C409" s="5"/>
+    </row>
+    <row r="410">
+      <c r="C410" s="5"/>
+    </row>
+    <row r="411">
+      <c r="C411" s="5"/>
+    </row>
+    <row r="412">
+      <c r="C412" s="5"/>
+    </row>
+    <row r="413">
+      <c r="C413" s="5"/>
+    </row>
+    <row r="414">
+      <c r="C414" s="5"/>
+    </row>
+    <row r="415">
+      <c r="C415" s="5"/>
+    </row>
+    <row r="416">
+      <c r="C416" s="5"/>
+    </row>
+    <row r="417">
+      <c r="C417" s="5"/>
+    </row>
+    <row r="418">
+      <c r="C418" s="5"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="5"/>
+    </row>
+    <row r="420">
+      <c r="C420" s="5"/>
+    </row>
+    <row r="421">
+      <c r="C421" s="5"/>
+    </row>
+    <row r="422">
+      <c r="C422" s="5"/>
+    </row>
+    <row r="423">
+      <c r="C423" s="5"/>
+    </row>
+    <row r="424">
+      <c r="C424" s="5"/>
+    </row>
+    <row r="425">
+      <c r="C425" s="5"/>
+    </row>
+    <row r="426">
+      <c r="C426" s="5"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="5"/>
+    </row>
+    <row r="428">
+      <c r="C428" s="5"/>
+    </row>
+    <row r="429">
+      <c r="C429" s="5"/>
+    </row>
+    <row r="430">
+      <c r="C430" s="5"/>
+    </row>
+    <row r="431">
+      <c r="C431" s="5"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="5"/>
+    </row>
+    <row r="433">
+      <c r="C433" s="5"/>
+    </row>
+    <row r="434">
+      <c r="C434" s="5"/>
+    </row>
+    <row r="435">
+      <c r="C435" s="5"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="5"/>
+    </row>
+    <row r="437">
+      <c r="C437" s="5"/>
+    </row>
+    <row r="438">
+      <c r="C438" s="5"/>
+    </row>
+    <row r="439">
+      <c r="C439" s="5"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="5"/>
+    </row>
+    <row r="441">
+      <c r="C441" s="5"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="5"/>
+    </row>
+    <row r="443">
+      <c r="C443" s="5"/>
+    </row>
+    <row r="444">
+      <c r="C444" s="5"/>
+    </row>
+    <row r="445">
+      <c r="C445" s="5"/>
+    </row>
+    <row r="446">
+      <c r="C446" s="5"/>
+    </row>
+    <row r="447">
+      <c r="C447" s="5"/>
+    </row>
+    <row r="448">
+      <c r="C448" s="5"/>
+    </row>
+    <row r="449">
+      <c r="C449" s="5"/>
+    </row>
+    <row r="450">
+      <c r="C450" s="5"/>
+    </row>
+    <row r="451">
+      <c r="C451" s="5"/>
+    </row>
+    <row r="452">
+      <c r="C452" s="5"/>
+    </row>
+    <row r="453">
+      <c r="C453" s="5"/>
+    </row>
+    <row r="454">
+      <c r="C454" s="5"/>
+    </row>
+    <row r="455">
+      <c r="C455" s="5"/>
+    </row>
+    <row r="456">
+      <c r="C456" s="5"/>
+    </row>
+    <row r="457">
+      <c r="C457" s="5"/>
+    </row>
+    <row r="458">
+      <c r="C458" s="5"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="5"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="5"/>
+    </row>
+    <row r="461">
+      <c r="C461" s="5"/>
+    </row>
+    <row r="462">
+      <c r="C462" s="5"/>
+    </row>
+    <row r="463">
+      <c r="C463" s="5"/>
+    </row>
+    <row r="464">
+      <c r="C464" s="5"/>
+    </row>
+    <row r="465">
+      <c r="C465" s="5"/>
+    </row>
+    <row r="466">
+      <c r="C466" s="5"/>
+    </row>
+    <row r="467">
+      <c r="C467" s="5"/>
+    </row>
+    <row r="468">
+      <c r="C468" s="5"/>
+    </row>
+    <row r="469">
+      <c r="C469" s="5"/>
+    </row>
+    <row r="470">
+      <c r="C470" s="5"/>
+    </row>
+    <row r="471">
+      <c r="C471" s="5"/>
+    </row>
+    <row r="472">
+      <c r="C472" s="5"/>
+    </row>
+    <row r="473">
+      <c r="C473" s="5"/>
+    </row>
+    <row r="474">
+      <c r="C474" s="5"/>
+    </row>
+    <row r="475">
+      <c r="C475" s="5"/>
+    </row>
+    <row r="476">
+      <c r="C476" s="5"/>
+    </row>
+    <row r="477">
+      <c r="C477" s="5"/>
+    </row>
+    <row r="478">
+      <c r="C478" s="5"/>
+    </row>
+    <row r="479">
+      <c r="C479" s="5"/>
+    </row>
+    <row r="480">
+      <c r="C480" s="5"/>
+    </row>
+    <row r="481">
+      <c r="C481" s="5"/>
+    </row>
+    <row r="482">
+      <c r="C482" s="5"/>
+    </row>
+    <row r="483">
+      <c r="C483" s="5"/>
+    </row>
+    <row r="484">
+      <c r="C484" s="5"/>
+    </row>
+    <row r="485">
+      <c r="C485" s="5"/>
+    </row>
+    <row r="486">
+      <c r="C486" s="5"/>
+    </row>
+    <row r="487">
+      <c r="C487" s="5"/>
+    </row>
+    <row r="488">
+      <c r="C488" s="5"/>
+    </row>
+    <row r="489">
+      <c r="C489" s="5"/>
+    </row>
+    <row r="490">
+      <c r="C490" s="5"/>
+    </row>
+    <row r="491">
+      <c r="C491" s="5"/>
+    </row>
+    <row r="492">
+      <c r="C492" s="5"/>
+    </row>
+    <row r="493">
+      <c r="C493" s="5"/>
+    </row>
+    <row r="494">
+      <c r="C494" s="5"/>
+    </row>
+    <row r="495">
+      <c r="C495" s="5"/>
+    </row>
+    <row r="496">
+      <c r="C496" s="5"/>
+    </row>
+    <row r="497">
+      <c r="C497" s="5"/>
+    </row>
+    <row r="498">
+      <c r="C498" s="5"/>
+    </row>
+    <row r="499">
+      <c r="C499" s="5"/>
+    </row>
+    <row r="500">
+      <c r="C500" s="5"/>
+    </row>
+    <row r="501">
+      <c r="C501" s="5"/>
+    </row>
+    <row r="502">
+      <c r="C502" s="5"/>
+    </row>
+    <row r="503">
+      <c r="C503" s="5"/>
+    </row>
+    <row r="504">
+      <c r="C504" s="5"/>
+    </row>
+    <row r="505">
+      <c r="C505" s="5"/>
+    </row>
+    <row r="506">
+      <c r="C506" s="5"/>
+    </row>
+    <row r="507">
+      <c r="C507" s="5"/>
+    </row>
+    <row r="508">
+      <c r="C508" s="5"/>
+    </row>
+    <row r="509">
+      <c r="C509" s="5"/>
+    </row>
+    <row r="510">
+      <c r="C510" s="5"/>
+    </row>
+    <row r="511">
+      <c r="C511" s="5"/>
+    </row>
+    <row r="512">
+      <c r="C512" s="5"/>
+    </row>
+    <row r="513">
+      <c r="C513" s="5"/>
+    </row>
+    <row r="514">
+      <c r="C514" s="5"/>
+    </row>
+    <row r="515">
+      <c r="C515" s="5"/>
+    </row>
+    <row r="516">
+      <c r="C516" s="5"/>
+    </row>
+    <row r="517">
+      <c r="C517" s="5"/>
+    </row>
+    <row r="518">
+      <c r="C518" s="5"/>
+    </row>
+    <row r="519">
+      <c r="C519" s="5"/>
+    </row>
+    <row r="520">
+      <c r="C520" s="5"/>
+    </row>
+    <row r="521">
+      <c r="C521" s="5"/>
+    </row>
+    <row r="522">
+      <c r="C522" s="5"/>
+    </row>
+    <row r="523">
+      <c r="C523" s="5"/>
+    </row>
+    <row r="524">
+      <c r="C524" s="5"/>
+    </row>
+    <row r="525">
+      <c r="C525" s="5"/>
+    </row>
+    <row r="526">
+      <c r="C526" s="5"/>
+    </row>
+    <row r="527">
+      <c r="C527" s="5"/>
+    </row>
+    <row r="528">
+      <c r="C528" s="5"/>
+    </row>
+    <row r="529">
+      <c r="C529" s="5"/>
+    </row>
+    <row r="530">
+      <c r="C530" s="5"/>
+    </row>
+    <row r="531">
+      <c r="C531" s="5"/>
+    </row>
+    <row r="532">
+      <c r="C532" s="5"/>
+    </row>
+    <row r="533">
+      <c r="C533" s="5"/>
+    </row>
+    <row r="534">
+      <c r="C534" s="5"/>
+    </row>
+    <row r="535">
+      <c r="C535" s="5"/>
+    </row>
+    <row r="536">
+      <c r="C536" s="5"/>
+    </row>
+    <row r="537">
+      <c r="C537" s="5"/>
+    </row>
+    <row r="538">
+      <c r="C538" s="5"/>
+    </row>
+    <row r="539">
+      <c r="C539" s="5"/>
+    </row>
+    <row r="540">
+      <c r="C540" s="5"/>
+    </row>
+    <row r="541">
+      <c r="C541" s="5"/>
+    </row>
+    <row r="542">
+      <c r="C542" s="5"/>
+    </row>
+    <row r="543">
+      <c r="C543" s="5"/>
+    </row>
+    <row r="544">
+      <c r="C544" s="5"/>
+    </row>
+    <row r="545">
+      <c r="C545" s="5"/>
+    </row>
+    <row r="546">
+      <c r="C546" s="5"/>
+    </row>
+    <row r="547">
+      <c r="C547" s="5"/>
+    </row>
+    <row r="548">
+      <c r="C548" s="5"/>
+    </row>
+    <row r="549">
+      <c r="C549" s="5"/>
+    </row>
+    <row r="550">
+      <c r="C550" s="5"/>
+    </row>
+    <row r="551">
+      <c r="C551" s="5"/>
+    </row>
+    <row r="552">
+      <c r="C552" s="5"/>
+    </row>
+    <row r="553">
+      <c r="C553" s="5"/>
+    </row>
+    <row r="554">
+      <c r="C554" s="5"/>
+    </row>
+    <row r="555">
+      <c r="C555" s="5"/>
+    </row>
+    <row r="556">
+      <c r="C556" s="5"/>
+    </row>
+    <row r="557">
+      <c r="C557" s="5"/>
+    </row>
+    <row r="558">
+      <c r="C558" s="5"/>
+    </row>
+    <row r="559">
+      <c r="C559" s="5"/>
+    </row>
+    <row r="560">
+      <c r="C560" s="5"/>
+    </row>
+    <row r="561">
+      <c r="C561" s="5"/>
+    </row>
+    <row r="562">
+      <c r="C562" s="5"/>
+    </row>
+    <row r="563">
+      <c r="C563" s="5"/>
+    </row>
+    <row r="564">
+      <c r="C564" s="5"/>
+    </row>
+    <row r="565">
+      <c r="C565" s="5"/>
+    </row>
+    <row r="566">
+      <c r="C566" s="5"/>
+    </row>
+    <row r="567">
+      <c r="C567" s="5"/>
+    </row>
+    <row r="568">
+      <c r="C568" s="5"/>
+    </row>
+    <row r="569">
+      <c r="C569" s="5"/>
+    </row>
+    <row r="570">
+      <c r="C570" s="5"/>
+    </row>
+    <row r="571">
+      <c r="C571" s="5"/>
+    </row>
+    <row r="572">
+      <c r="C572" s="5"/>
+    </row>
+    <row r="573">
+      <c r="C573" s="5"/>
+    </row>
+    <row r="574">
+      <c r="C574" s="5"/>
+    </row>
+    <row r="575">
+      <c r="C575" s="5"/>
+    </row>
+    <row r="576">
+      <c r="C576" s="5"/>
+    </row>
+    <row r="577">
+      <c r="C577" s="5"/>
+    </row>
+    <row r="578">
+      <c r="C578" s="5"/>
+    </row>
+    <row r="579">
+      <c r="C579" s="5"/>
+    </row>
+    <row r="580">
+      <c r="C580" s="5"/>
+    </row>
+    <row r="581">
+      <c r="C581" s="5"/>
+    </row>
+    <row r="582">
+      <c r="C582" s="5"/>
+    </row>
+    <row r="583">
+      <c r="C583" s="5"/>
+    </row>
+    <row r="584">
+      <c r="C584" s="5"/>
+    </row>
+    <row r="585">
+      <c r="C585" s="5"/>
+    </row>
+    <row r="586">
+      <c r="C586" s="5"/>
+    </row>
+    <row r="587">
+      <c r="C587" s="5"/>
+    </row>
+    <row r="588">
+      <c r="C588" s="5"/>
+    </row>
+    <row r="589">
+      <c r="C589" s="5"/>
+    </row>
+    <row r="590">
+      <c r="C590" s="5"/>
+    </row>
+    <row r="591">
+      <c r="C591" s="5"/>
+    </row>
+    <row r="592">
+      <c r="C592" s="5"/>
+    </row>
+    <row r="593">
+      <c r="C593" s="5"/>
+    </row>
+    <row r="594">
+      <c r="C594" s="5"/>
+    </row>
+    <row r="595">
+      <c r="C595" s="5"/>
+    </row>
+    <row r="596">
+      <c r="C596" s="5"/>
+    </row>
+    <row r="597">
+      <c r="C597" s="5"/>
+    </row>
+    <row r="598">
+      <c r="C598" s="5"/>
+    </row>
+    <row r="599">
+      <c r="C599" s="5"/>
+    </row>
+    <row r="600">
+      <c r="C600" s="5"/>
+    </row>
+    <row r="601">
+      <c r="C601" s="5"/>
+    </row>
+    <row r="602">
+      <c r="C602" s="5"/>
+    </row>
+    <row r="603">
+      <c r="C603" s="5"/>
+    </row>
+    <row r="604">
+      <c r="C604" s="5"/>
+    </row>
+    <row r="605">
+      <c r="C605" s="5"/>
+    </row>
+    <row r="606">
+      <c r="C606" s="5"/>
+    </row>
+    <row r="607">
+      <c r="C607" s="5"/>
+    </row>
+    <row r="608">
+      <c r="C608" s="5"/>
+    </row>
+    <row r="609">
+      <c r="C609" s="5"/>
+    </row>
+    <row r="610">
+      <c r="C610" s="5"/>
+    </row>
+    <row r="611">
+      <c r="C611" s="5"/>
+    </row>
+    <row r="612">
+      <c r="C612" s="5"/>
+    </row>
+    <row r="613">
+      <c r="C613" s="5"/>
+    </row>
+    <row r="614">
+      <c r="C614" s="5"/>
+    </row>
+    <row r="615">
+      <c r="C615" s="5"/>
+    </row>
+    <row r="616">
+      <c r="C616" s="5"/>
+    </row>
+    <row r="617">
+      <c r="C617" s="5"/>
+    </row>
+    <row r="618">
+      <c r="C618" s="5"/>
+    </row>
+    <row r="619">
+      <c r="C619" s="5"/>
+    </row>
+    <row r="620">
+      <c r="C620" s="5"/>
+    </row>
+    <row r="621">
+      <c r="C621" s="5"/>
+    </row>
+    <row r="622">
+      <c r="C622" s="5"/>
+    </row>
+    <row r="623">
+      <c r="C623" s="5"/>
+    </row>
+    <row r="624">
+      <c r="C624" s="5"/>
+    </row>
+    <row r="625">
+      <c r="C625" s="5"/>
+    </row>
+    <row r="626">
+      <c r="C626" s="5"/>
+    </row>
+    <row r="627">
+      <c r="C627" s="5"/>
+    </row>
+    <row r="628">
+      <c r="C628" s="5"/>
+    </row>
+    <row r="629">
+      <c r="C629" s="5"/>
+    </row>
+    <row r="630">
+      <c r="C630" s="5"/>
+    </row>
+    <row r="631">
+      <c r="C631" s="5"/>
+    </row>
+    <row r="632">
+      <c r="C632" s="5"/>
+    </row>
+    <row r="633">
+      <c r="C633" s="5"/>
+    </row>
+    <row r="634">
+      <c r="C634" s="5"/>
+    </row>
+    <row r="635">
+      <c r="C635" s="5"/>
+    </row>
+    <row r="636">
+      <c r="C636" s="5"/>
+    </row>
+    <row r="637">
+      <c r="C637" s="5"/>
+    </row>
+    <row r="638">
+      <c r="C638" s="5"/>
+    </row>
+    <row r="639">
+      <c r="C639" s="5"/>
+    </row>
+    <row r="640">
+      <c r="C640" s="5"/>
+    </row>
+    <row r="641">
+      <c r="C641" s="5"/>
+    </row>
+    <row r="642">
+      <c r="C642" s="5"/>
+    </row>
+    <row r="643">
+      <c r="C643" s="5"/>
+    </row>
+    <row r="644">
+      <c r="C644" s="5"/>
+    </row>
+    <row r="645">
+      <c r="C645" s="5"/>
+    </row>
+    <row r="646">
+      <c r="C646" s="5"/>
+    </row>
+    <row r="647">
+      <c r="C647" s="5"/>
+    </row>
+    <row r="648">
+      <c r="C648" s="5"/>
+    </row>
+    <row r="649">
+      <c r="C649" s="5"/>
+    </row>
+    <row r="650">
+      <c r="C650" s="5"/>
+    </row>
+    <row r="651">
+      <c r="C651" s="5"/>
+    </row>
+    <row r="652">
+      <c r="C652" s="5"/>
+    </row>
+    <row r="653">
+      <c r="C653" s="5"/>
+    </row>
+    <row r="654">
+      <c r="C654" s="5"/>
+    </row>
+    <row r="655">
+      <c r="C655" s="5"/>
+    </row>
+    <row r="656">
+      <c r="C656" s="5"/>
+    </row>
+    <row r="657">
+      <c r="C657" s="5"/>
+    </row>
+    <row r="658">
+      <c r="C658" s="5"/>
+    </row>
+    <row r="659">
+      <c r="C659" s="5"/>
+    </row>
+    <row r="660">
+      <c r="C660" s="5"/>
+    </row>
+    <row r="661">
+      <c r="C661" s="5"/>
+    </row>
+    <row r="662">
+      <c r="C662" s="5"/>
+    </row>
+    <row r="663">
+      <c r="C663" s="5"/>
+    </row>
+    <row r="664">
+      <c r="C664" s="5"/>
+    </row>
+    <row r="665">
+      <c r="C665" s="5"/>
+    </row>
+    <row r="666">
+      <c r="C666" s="5"/>
+    </row>
+    <row r="667">
+      <c r="C667" s="5"/>
+    </row>
+    <row r="668">
+      <c r="C668" s="5"/>
+    </row>
+    <row r="669">
+      <c r="C669" s="5"/>
+    </row>
+    <row r="670">
+      <c r="C670" s="5"/>
+    </row>
+    <row r="671">
+      <c r="C671" s="5"/>
+    </row>
+    <row r="672">
+      <c r="C672" s="5"/>
+    </row>
+    <row r="673">
+      <c r="C673" s="5"/>
+    </row>
+    <row r="674">
+      <c r="C674" s="5"/>
+    </row>
+    <row r="675">
+      <c r="C675" s="5"/>
+    </row>
+    <row r="676">
+      <c r="C676" s="5"/>
+    </row>
+    <row r="677">
+      <c r="C677" s="5"/>
+    </row>
+    <row r="678">
+      <c r="C678" s="5"/>
+    </row>
+    <row r="679">
+      <c r="C679" s="5"/>
+    </row>
+    <row r="680">
+      <c r="C680" s="5"/>
+    </row>
+    <row r="681">
+      <c r="C681" s="5"/>
+    </row>
+    <row r="682">
+      <c r="C682" s="5"/>
+    </row>
+    <row r="683">
+      <c r="C683" s="5"/>
+    </row>
+    <row r="684">
+      <c r="C684" s="5"/>
+    </row>
+    <row r="685">
+      <c r="C685" s="5"/>
+    </row>
+    <row r="686">
+      <c r="C686" s="5"/>
+    </row>
+    <row r="687">
+      <c r="C687" s="5"/>
+    </row>
+    <row r="688">
+      <c r="C688" s="5"/>
+    </row>
+    <row r="689">
+      <c r="C689" s="5"/>
+    </row>
+    <row r="690">
+      <c r="C690" s="5"/>
+    </row>
+    <row r="691">
+      <c r="C691" s="5"/>
+    </row>
+    <row r="692">
+      <c r="C692" s="5"/>
+    </row>
+    <row r="693">
+      <c r="C693" s="5"/>
+    </row>
+    <row r="694">
+      <c r="C694" s="5"/>
+    </row>
+    <row r="695">
+      <c r="C695" s="5"/>
+    </row>
+    <row r="696">
+      <c r="C696" s="5"/>
+    </row>
+    <row r="697">
+      <c r="C697" s="5"/>
+    </row>
+    <row r="698">
+      <c r="C698" s="5"/>
+    </row>
+    <row r="699">
+      <c r="C699" s="5"/>
+    </row>
+    <row r="700">
+      <c r="C700" s="5"/>
+    </row>
+    <row r="701">
+      <c r="C701" s="5"/>
+    </row>
+    <row r="702">
+      <c r="C702" s="5"/>
+    </row>
+    <row r="703">
+      <c r="C703" s="5"/>
+    </row>
+    <row r="704">
+      <c r="C704" s="5"/>
+    </row>
+    <row r="705">
+      <c r="C705" s="5"/>
+    </row>
+    <row r="706">
+      <c r="C706" s="5"/>
+    </row>
+    <row r="707">
+      <c r="C707" s="5"/>
+    </row>
+    <row r="708">
+      <c r="C708" s="5"/>
+    </row>
+    <row r="709">
+      <c r="C709" s="5"/>
+    </row>
+    <row r="710">
+      <c r="C710" s="5"/>
+    </row>
+    <row r="711">
+      <c r="C711" s="5"/>
+    </row>
+    <row r="712">
+      <c r="C712" s="5"/>
+    </row>
+    <row r="713">
+      <c r="C713" s="5"/>
+    </row>
+    <row r="714">
+      <c r="C714" s="5"/>
+    </row>
+    <row r="715">
+      <c r="C715" s="5"/>
+    </row>
+    <row r="716">
+      <c r="C716" s="5"/>
+    </row>
+    <row r="717">
+      <c r="C717" s="5"/>
+    </row>
+    <row r="718">
+      <c r="C718" s="5"/>
+    </row>
+    <row r="719">
+      <c r="C719" s="5"/>
+    </row>
+    <row r="720">
+      <c r="C720" s="5"/>
+    </row>
+    <row r="721">
+      <c r="C721" s="5"/>
+    </row>
+    <row r="722">
+      <c r="C722" s="5"/>
+    </row>
+    <row r="723">
+      <c r="C723" s="5"/>
+    </row>
+    <row r="724">
+      <c r="C724" s="5"/>
+    </row>
+    <row r="725">
+      <c r="C725" s="5"/>
+    </row>
+    <row r="726">
+      <c r="C726" s="5"/>
+    </row>
+    <row r="727">
+      <c r="C727" s="5"/>
+    </row>
+    <row r="728">
+      <c r="C728" s="5"/>
+    </row>
+    <row r="729">
+      <c r="C729" s="5"/>
+    </row>
+    <row r="730">
+      <c r="C730" s="5"/>
+    </row>
+    <row r="731">
+      <c r="C731" s="5"/>
+    </row>
+    <row r="732">
+      <c r="C732" s="5"/>
+    </row>
+    <row r="733">
+      <c r="C733" s="5"/>
+    </row>
+    <row r="734">
+      <c r="C734" s="5"/>
+    </row>
+    <row r="735">
+      <c r="C735" s="5"/>
+    </row>
+    <row r="736">
+      <c r="C736" s="5"/>
+    </row>
+    <row r="737">
+      <c r="C737" s="5"/>
+    </row>
+    <row r="738">
+      <c r="C738" s="5"/>
+    </row>
+    <row r="739">
+      <c r="C739" s="5"/>
+    </row>
+    <row r="740">
+      <c r="C740" s="5"/>
+    </row>
+    <row r="741">
+      <c r="C741" s="5"/>
+    </row>
+    <row r="742">
+      <c r="C742" s="5"/>
+    </row>
+    <row r="743">
+      <c r="C743" s="5"/>
+    </row>
+    <row r="744">
+      <c r="C744" s="5"/>
+    </row>
+    <row r="745">
+      <c r="C745" s="5"/>
+    </row>
+    <row r="746">
+      <c r="C746" s="5"/>
+    </row>
+    <row r="747">
+      <c r="C747" s="5"/>
+    </row>
+    <row r="748">
+      <c r="C748" s="5"/>
+    </row>
+    <row r="749">
+      <c r="C749" s="5"/>
+    </row>
+    <row r="750">
+      <c r="C750" s="5"/>
+    </row>
+    <row r="751">
+      <c r="C751" s="5"/>
+    </row>
+    <row r="752">
+      <c r="C752" s="5"/>
+    </row>
+    <row r="753">
+      <c r="C753" s="5"/>
+    </row>
+    <row r="754">
+      <c r="C754" s="5"/>
+    </row>
+    <row r="755">
+      <c r="C755" s="5"/>
+    </row>
+    <row r="756">
+      <c r="C756" s="5"/>
+    </row>
+    <row r="757">
+      <c r="C757" s="5"/>
+    </row>
+    <row r="758">
+      <c r="C758" s="5"/>
+    </row>
+    <row r="759">
+      <c r="C759" s="5"/>
+    </row>
+    <row r="760">
+      <c r="C760" s="5"/>
+    </row>
+    <row r="761">
+      <c r="C761" s="5"/>
+    </row>
+    <row r="762">
+      <c r="C762" s="5"/>
+    </row>
+    <row r="763">
+      <c r="C763" s="5"/>
+    </row>
+    <row r="764">
+      <c r="C764" s="5"/>
+    </row>
+    <row r="765">
+      <c r="C765" s="5"/>
+    </row>
+    <row r="766">
+      <c r="C766" s="5"/>
+    </row>
+    <row r="767">
+      <c r="C767" s="5"/>
+    </row>
+    <row r="768">
+      <c r="C768" s="5"/>
+    </row>
+    <row r="769">
+      <c r="C769" s="5"/>
+    </row>
+    <row r="770">
+      <c r="C770" s="5"/>
+    </row>
+    <row r="771">
+      <c r="C771" s="5"/>
+    </row>
+    <row r="772">
+      <c r="C772" s="5"/>
+    </row>
+    <row r="773">
+      <c r="C773" s="5"/>
+    </row>
+    <row r="774">
+      <c r="C774" s="5"/>
+    </row>
+    <row r="775">
+      <c r="C775" s="5"/>
+    </row>
+    <row r="776">
+      <c r="C776" s="5"/>
+    </row>
+    <row r="777">
+      <c r="C777" s="5"/>
+    </row>
+    <row r="778">
+      <c r="C778" s="5"/>
+    </row>
+    <row r="779">
+      <c r="C779" s="5"/>
+    </row>
+    <row r="780">
+      <c r="C780" s="5"/>
+    </row>
+    <row r="781">
+      <c r="C781" s="5"/>
+    </row>
+    <row r="782">
+      <c r="C782" s="5"/>
+    </row>
+    <row r="783">
+      <c r="C783" s="5"/>
+    </row>
+    <row r="784">
+      <c r="C784" s="5"/>
+    </row>
+    <row r="785">
+      <c r="C785" s="5"/>
+    </row>
+    <row r="786">
+      <c r="C786" s="5"/>
+    </row>
+    <row r="787">
+      <c r="C787" s="5"/>
+    </row>
+    <row r="788">
+      <c r="C788" s="5"/>
+    </row>
+    <row r="789">
+      <c r="C789" s="5"/>
+    </row>
+    <row r="790">
+      <c r="C790" s="5"/>
+    </row>
+    <row r="791">
+      <c r="C791" s="5"/>
+    </row>
+    <row r="792">
+      <c r="C792" s="5"/>
+    </row>
+    <row r="793">
+      <c r="C793" s="5"/>
+    </row>
+    <row r="794">
+      <c r="C794" s="5"/>
+    </row>
+    <row r="795">
+      <c r="C795" s="5"/>
+    </row>
+    <row r="796">
+      <c r="C796" s="5"/>
+    </row>
+    <row r="797">
+      <c r="C797" s="5"/>
+    </row>
+    <row r="798">
+      <c r="C798" s="5"/>
+    </row>
+    <row r="799">
+      <c r="C799" s="5"/>
+    </row>
+    <row r="800">
+      <c r="C800" s="5"/>
+    </row>
+    <row r="801">
+      <c r="C801" s="5"/>
+    </row>
+    <row r="802">
+      <c r="C802" s="5"/>
+    </row>
+    <row r="803">
+      <c r="C803" s="5"/>
+    </row>
+    <row r="804">
+      <c r="C804" s="5"/>
+    </row>
+    <row r="805">
+      <c r="C805" s="5"/>
+    </row>
+    <row r="806">
+      <c r="C806" s="5"/>
+    </row>
+    <row r="807">
+      <c r="C807" s="5"/>
+    </row>
+    <row r="808">
+      <c r="C808" s="5"/>
+    </row>
+    <row r="809">
+      <c r="C809" s="5"/>
+    </row>
+    <row r="810">
+      <c r="C810" s="5"/>
+    </row>
+    <row r="811">
+      <c r="C811" s="5"/>
+    </row>
+    <row r="812">
+      <c r="C812" s="5"/>
+    </row>
+    <row r="813">
+      <c r="C813" s="5"/>
+    </row>
+    <row r="814">
+      <c r="C814" s="5"/>
+    </row>
+    <row r="815">
+      <c r="C815" s="5"/>
+    </row>
+    <row r="816">
+      <c r="C816" s="5"/>
+    </row>
+    <row r="817">
+      <c r="C817" s="5"/>
+    </row>
+    <row r="818">
+      <c r="C818" s="5"/>
+    </row>
+    <row r="819">
+      <c r="C819" s="5"/>
+    </row>
+    <row r="820">
+      <c r="C820" s="5"/>
+    </row>
+    <row r="821">
+      <c r="C821" s="5"/>
+    </row>
+    <row r="822">
+      <c r="C822" s="5"/>
+    </row>
+    <row r="823">
+      <c r="C823" s="5"/>
+    </row>
+    <row r="824">
+      <c r="C824" s="5"/>
+    </row>
+    <row r="825">
+      <c r="C825" s="5"/>
+    </row>
+    <row r="826">
+      <c r="C826" s="5"/>
+    </row>
+    <row r="827">
+      <c r="C827" s="5"/>
+    </row>
+    <row r="828">
+      <c r="C828" s="5"/>
+    </row>
+    <row r="829">
+      <c r="C829" s="5"/>
+    </row>
+    <row r="830">
+      <c r="C830" s="5"/>
+    </row>
+    <row r="831">
+      <c r="C831" s="5"/>
+    </row>
+    <row r="832">
+      <c r="C832" s="5"/>
+    </row>
+    <row r="833">
+      <c r="C833" s="5"/>
+    </row>
+    <row r="834">
+      <c r="C834" s="5"/>
+    </row>
+    <row r="835">
+      <c r="C835" s="5"/>
+    </row>
+    <row r="836">
+      <c r="C836" s="5"/>
+    </row>
+    <row r="837">
+      <c r="C837" s="5"/>
+    </row>
+    <row r="838">
+      <c r="C838" s="5"/>
+    </row>
+    <row r="839">
+      <c r="C839" s="5"/>
+    </row>
+    <row r="840">
+      <c r="C840" s="5"/>
+    </row>
+    <row r="841">
+      <c r="C841" s="5"/>
+    </row>
+    <row r="842">
+      <c r="C842" s="5"/>
+    </row>
+    <row r="843">
+      <c r="C843" s="5"/>
+    </row>
+    <row r="844">
+      <c r="C844" s="5"/>
+    </row>
+    <row r="845">
+      <c r="C845" s="5"/>
+    </row>
+    <row r="846">
+      <c r="C846" s="5"/>
+    </row>
+    <row r="847">
+      <c r="C847" s="5"/>
+    </row>
+    <row r="848">
+      <c r="C848" s="5"/>
+    </row>
+    <row r="849">
+      <c r="C849" s="5"/>
+    </row>
+    <row r="850">
+      <c r="C850" s="5"/>
+    </row>
+    <row r="851">
+      <c r="C851" s="5"/>
+    </row>
+    <row r="852">
+      <c r="C852" s="5"/>
+    </row>
+    <row r="853">
+      <c r="C853" s="5"/>
+    </row>
+    <row r="854">
+      <c r="C854" s="5"/>
+    </row>
+    <row r="855">
+      <c r="C855" s="5"/>
+    </row>
+    <row r="856">
+      <c r="C856" s="5"/>
+    </row>
+    <row r="857">
+      <c r="C857" s="5"/>
+    </row>
+    <row r="858">
+      <c r="C858" s="5"/>
+    </row>
+    <row r="859">
+      <c r="C859" s="5"/>
+    </row>
+    <row r="860">
+      <c r="C860" s="5"/>
+    </row>
+    <row r="861">
+      <c r="C861" s="5"/>
+    </row>
+    <row r="862">
+      <c r="C862" s="5"/>
+    </row>
+    <row r="863">
+      <c r="C863" s="5"/>
+    </row>
+    <row r="864">
+      <c r="C864" s="5"/>
+    </row>
+    <row r="865">
+      <c r="C865" s="5"/>
+    </row>
+    <row r="866">
+      <c r="C866" s="5"/>
+    </row>
+    <row r="867">
+      <c r="C867" s="5"/>
+    </row>
+    <row r="868">
+      <c r="C868" s="5"/>
+    </row>
+    <row r="869">
+      <c r="C869" s="5"/>
+    </row>
+    <row r="870">
+      <c r="C870" s="5"/>
+    </row>
+    <row r="871">
+      <c r="C871" s="5"/>
+    </row>
+    <row r="872">
+      <c r="C872" s="5"/>
+    </row>
+    <row r="873">
+      <c r="C873" s="5"/>
+    </row>
+    <row r="874">
+      <c r="C874" s="5"/>
+    </row>
+    <row r="875">
+      <c r="C875" s="5"/>
+    </row>
+    <row r="876">
+      <c r="C876" s="5"/>
+    </row>
+    <row r="877">
+      <c r="C877" s="5"/>
+    </row>
+    <row r="878">
+      <c r="C878" s="5"/>
+    </row>
+    <row r="879">
+      <c r="C879" s="5"/>
+    </row>
+    <row r="880">
+      <c r="C880" s="5"/>
+    </row>
+    <row r="881">
+      <c r="C881" s="5"/>
+    </row>
+    <row r="882">
+      <c r="C882" s="5"/>
+    </row>
+    <row r="883">
+      <c r="C883" s="5"/>
+    </row>
+    <row r="884">
+      <c r="C884" s="5"/>
+    </row>
+    <row r="885">
+      <c r="C885" s="5"/>
+    </row>
+    <row r="886">
+      <c r="C886" s="5"/>
+    </row>
+    <row r="887">
+      <c r="C887" s="5"/>
+    </row>
+    <row r="888">
+      <c r="C888" s="5"/>
+    </row>
+    <row r="889">
+      <c r="C889" s="5"/>
+    </row>
+    <row r="890">
+      <c r="C890" s="5"/>
+    </row>
+    <row r="891">
+      <c r="C891" s="5"/>
+    </row>
+    <row r="892">
+      <c r="C892" s="5"/>
+    </row>
+    <row r="893">
+      <c r="C893" s="5"/>
+    </row>
+    <row r="894">
+      <c r="C894" s="5"/>
+    </row>
+    <row r="895">
+      <c r="C895" s="5"/>
+    </row>
+    <row r="896">
+      <c r="C896" s="5"/>
+    </row>
+    <row r="897">
+      <c r="C897" s="5"/>
+    </row>
+    <row r="898">
+      <c r="C898" s="5"/>
+    </row>
+    <row r="899">
+      <c r="C899" s="5"/>
+    </row>
+    <row r="900">
+      <c r="C900" s="5"/>
+    </row>
+    <row r="901">
+      <c r="C901" s="5"/>
+    </row>
+    <row r="902">
+      <c r="C902" s="5"/>
+    </row>
+    <row r="903">
+      <c r="C903" s="5"/>
+    </row>
+    <row r="904">
+      <c r="C904" s="5"/>
+    </row>
+    <row r="905">
+      <c r="C905" s="5"/>
+    </row>
+    <row r="906">
+      <c r="C906" s="5"/>
+    </row>
+    <row r="907">
+      <c r="C907" s="5"/>
+    </row>
+    <row r="908">
+      <c r="C908" s="5"/>
+    </row>
+    <row r="909">
+      <c r="C909" s="5"/>
+    </row>
+    <row r="910">
+      <c r="C910" s="5"/>
+    </row>
+    <row r="911">
+      <c r="C911" s="5"/>
+    </row>
+    <row r="912">
+      <c r="C912" s="5"/>
+    </row>
+    <row r="913">
+      <c r="C913" s="5"/>
+    </row>
+    <row r="914">
+      <c r="C914" s="5"/>
+    </row>
+    <row r="915">
+      <c r="C915" s="5"/>
+    </row>
+    <row r="916">
+      <c r="C916" s="5"/>
+    </row>
+    <row r="917">
+      <c r="C917" s="5"/>
+    </row>
+    <row r="918">
+      <c r="C918" s="5"/>
+    </row>
+    <row r="919">
+      <c r="C919" s="5"/>
+    </row>
+    <row r="920">
+      <c r="C920" s="5"/>
+    </row>
+    <row r="921">
+      <c r="C921" s="5"/>
+    </row>
+    <row r="922">
+      <c r="C922" s="5"/>
+    </row>
+    <row r="923">
+      <c r="C923" s="5"/>
+    </row>
+    <row r="924">
+      <c r="C924" s="5"/>
+    </row>
+    <row r="925">
+      <c r="C925" s="5"/>
+    </row>
+    <row r="926">
+      <c r="C926" s="5"/>
+    </row>
+    <row r="927">
+      <c r="C927" s="5"/>
+    </row>
+    <row r="928">
+      <c r="C928" s="5"/>
+    </row>
+    <row r="929">
+      <c r="C929" s="5"/>
+    </row>
+    <row r="930">
+      <c r="C930" s="5"/>
+    </row>
+    <row r="931">
+      <c r="C931" s="5"/>
+    </row>
+    <row r="932">
+      <c r="C932" s="5"/>
+    </row>
+    <row r="933">
+      <c r="C933" s="5"/>
+    </row>
+    <row r="934">
+      <c r="C934" s="5"/>
+    </row>
+    <row r="935">
+      <c r="C935" s="5"/>
+    </row>
+    <row r="936">
+      <c r="C936" s="5"/>
+    </row>
+    <row r="937">
+      <c r="C937" s="5"/>
+    </row>
+    <row r="938">
+      <c r="C938" s="5"/>
+    </row>
+    <row r="939">
+      <c r="C939" s="5"/>
+    </row>
+    <row r="940">
+      <c r="C940" s="5"/>
+    </row>
+    <row r="941">
+      <c r="C941" s="5"/>
+    </row>
+    <row r="942">
+      <c r="C942" s="5"/>
+    </row>
+    <row r="943">
+      <c r="C943" s="5"/>
+    </row>
+    <row r="944">
+      <c r="C944" s="5"/>
+    </row>
+    <row r="945">
+      <c r="C945" s="5"/>
+    </row>
+    <row r="946">
+      <c r="C946" s="5"/>
+    </row>
+    <row r="947">
+      <c r="C947" s="5"/>
+    </row>
+    <row r="948">
+      <c r="C948" s="5"/>
+    </row>
+    <row r="949">
+      <c r="C949" s="5"/>
+    </row>
+    <row r="950">
+      <c r="C950" s="5"/>
+    </row>
+    <row r="951">
+      <c r="C951" s="5"/>
+    </row>
+    <row r="952">
+      <c r="C952" s="5"/>
+    </row>
+    <row r="953">
+      <c r="C953" s="5"/>
+    </row>
+    <row r="954">
+      <c r="C954" s="5"/>
+    </row>
+    <row r="955">
+      <c r="C955" s="5"/>
+    </row>
+    <row r="956">
+      <c r="C956" s="5"/>
+    </row>
+    <row r="957">
+      <c r="C957" s="5"/>
+    </row>
+    <row r="958">
+      <c r="C958" s="5"/>
+    </row>
+    <row r="959">
+      <c r="C959" s="5"/>
+    </row>
+    <row r="960">
+      <c r="C960" s="5"/>
+    </row>
+    <row r="961">
+      <c r="C961" s="5"/>
+    </row>
+    <row r="962">
+      <c r="C962" s="5"/>
+    </row>
+    <row r="963">
+      <c r="C963" s="5"/>
+    </row>
+    <row r="964">
+      <c r="C964" s="5"/>
+    </row>
+    <row r="965">
+      <c r="C965" s="5"/>
+    </row>
+    <row r="966">
+      <c r="C966" s="5"/>
+    </row>
+    <row r="967">
+      <c r="C967" s="5"/>
+    </row>
+    <row r="968">
+      <c r="C968" s="5"/>
+    </row>
+    <row r="969">
+      <c r="C969" s="5"/>
+    </row>
+    <row r="970">
+      <c r="C970" s="5"/>
+    </row>
+    <row r="971">
+      <c r="C971" s="5"/>
+    </row>
+    <row r="972">
+      <c r="C972" s="5"/>
+    </row>
+    <row r="973">
+      <c r="C973" s="5"/>
+    </row>
+    <row r="974">
+      <c r="C974" s="5"/>
+    </row>
+    <row r="975">
+      <c r="C975" s="5"/>
+    </row>
+    <row r="976">
+      <c r="C976" s="5"/>
+    </row>
+    <row r="977">
+      <c r="C977" s="5"/>
+    </row>
+    <row r="978">
+      <c r="C978" s="5"/>
+    </row>
+    <row r="979">
+      <c r="C979" s="5"/>
+    </row>
+    <row r="980">
+      <c r="C980" s="5"/>
+    </row>
+    <row r="981">
+      <c r="C981" s="5"/>
+    </row>
+    <row r="982">
+      <c r="C982" s="5"/>
+    </row>
+    <row r="983">
+      <c r="C983" s="5"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="5"/>
+    </row>
+    <row r="985">
+      <c r="C985" s="5"/>
+    </row>
+    <row r="986">
+      <c r="C986" s="5"/>
+    </row>
+    <row r="987">
+      <c r="C987" s="5"/>
+    </row>
+    <row r="988">
+      <c r="C988" s="5"/>
+    </row>
+    <row r="989">
+      <c r="C989" s="5"/>
+    </row>
+    <row r="990">
+      <c r="C990" s="5"/>
+    </row>
+    <row r="991">
+      <c r="C991" s="5"/>
+    </row>
+    <row r="992">
+      <c r="C992" s="5"/>
+    </row>
+    <row r="993">
+      <c r="C993" s="5"/>
+    </row>
+    <row r="994">
+      <c r="C994" s="5"/>
+    </row>
+    <row r="995">
+      <c r="C995" s="5"/>
+    </row>
+    <row r="996">
+      <c r="C996" s="5"/>
+    </row>
+    <row r="997">
+      <c r="C997" s="5"/>
+    </row>
+    <row r="998">
+      <c r="C998" s="5"/>
+    </row>
+    <row r="999">
+      <c r="C999" s="5"/>
+    </row>
+    <row r="1000">
+      <c r="C1000" s="5"/>
+    </row>
+    <row r="1001">
+      <c r="C1001" s="5"/>
+    </row>
+    <row r="1002">
+      <c r="C1002" s="5"/>
+    </row>
+    <row r="1003">
+      <c r="C1003" s="5"/>
+    </row>
+    <row r="1004">
+      <c r="C1004" s="5"/>
+    </row>
+    <row r="1005">
+      <c r="C1005" s="5"/>
+    </row>
+    <row r="1006">
+      <c r="C1006" s="5"/>
+    </row>
+    <row r="1007">
+      <c r="C1007" s="5"/>
+    </row>
+    <row r="1008">
+      <c r="C1008" s="5"/>
+    </row>
+    <row r="1009">
+      <c r="C1009" s="5"/>
+    </row>
+    <row r="1010">
+      <c r="C1010" s="5"/>
+    </row>
+    <row r="1011">
+      <c r="C1011" s="5"/>
+    </row>
+    <row r="1012">
+      <c r="C1012" s="5"/>
+    </row>
+    <row r="1013">
+      <c r="C1013" s="5"/>
+    </row>
+    <row r="1014">
+      <c r="C1014" s="5"/>
+    </row>
+    <row r="1015">
+      <c r="C1015" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B24" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="B25" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B29" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B30" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B31" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B33" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B34" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B35" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B36" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B38" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B40" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="B41" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B42" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B44" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B45" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B46" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B48" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B49" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B50" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B51" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B52" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B53" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="B54" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="B56" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B57" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B58" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B59" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B61" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B62" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="B63" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B64" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="B65" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B66" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="B67" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B68" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="B69" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B70" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="B71" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B4"/>
+    <hyperlink r:id="rId3" ref="B5"/>
+    <hyperlink r:id="rId4" ref="B7"/>
+    <hyperlink r:id="rId5" ref="B8"/>
+    <hyperlink r:id="rId6" ref="B9"/>
+    <hyperlink r:id="rId7" ref="B10"/>
+    <hyperlink r:id="rId8" ref="B11"/>
+    <hyperlink r:id="rId9" ref="B13"/>
+    <hyperlink r:id="rId10" ref="B14"/>
+    <hyperlink r:id="rId11" ref="B15"/>
+    <hyperlink r:id="rId12" ref="B16"/>
+    <hyperlink r:id="rId13" ref="B17"/>
+    <hyperlink r:id="rId14" ref="B18"/>
+    <hyperlink r:id="rId15" ref="B19"/>
+    <hyperlink r:id="rId16" ref="B20"/>
+    <hyperlink r:id="rId17" ref="B21"/>
+    <hyperlink r:id="rId18" ref="B23"/>
+    <hyperlink r:id="rId19" ref="B24"/>
+    <hyperlink r:id="rId20" ref="B25"/>
+    <hyperlink r:id="rId21" ref="B26"/>
+    <hyperlink r:id="rId22" ref="B27"/>
+    <hyperlink r:id="rId23" ref="B29"/>
+    <hyperlink r:id="rId24" ref="B30"/>
+    <hyperlink r:id="rId25" ref="B31"/>
+    <hyperlink r:id="rId26" ref="B33"/>
+    <hyperlink r:id="rId27" ref="B34"/>
+    <hyperlink r:id="rId28" ref="B35"/>
+    <hyperlink r:id="rId29" ref="B36"/>
+    <hyperlink r:id="rId30" ref="B38"/>
+    <hyperlink r:id="rId31" ref="B40"/>
+    <hyperlink r:id="rId32" ref="B41"/>
+    <hyperlink r:id="rId33" ref="B42"/>
+    <hyperlink r:id="rId34" ref="B44"/>
+    <hyperlink r:id="rId35" ref="B45"/>
+    <hyperlink r:id="rId36" ref="B46"/>
+    <hyperlink r:id="rId37" ref="B48"/>
+    <hyperlink r:id="rId38" ref="B49"/>
+    <hyperlink r:id="rId39" ref="B50"/>
+    <hyperlink r:id="rId40" ref="B51"/>
+    <hyperlink r:id="rId41" ref="B52"/>
+    <hyperlink r:id="rId42" ref="B53"/>
+    <hyperlink r:id="rId43" ref="B54"/>
+    <hyperlink r:id="rId44" ref="B55"/>
+    <hyperlink r:id="rId45" ref="B56"/>
+    <hyperlink r:id="rId46" ref="B58"/>
+    <hyperlink r:id="rId47" ref="B59"/>
+    <hyperlink r:id="rId48" ref="B60"/>
+    <hyperlink r:id="rId49" ref="B61"/>
+    <hyperlink r:id="rId50" ref="B62"/>
+    <hyperlink r:id="rId51" ref="B63"/>
+    <hyperlink r:id="rId52" ref="B65"/>
+    <hyperlink r:id="rId53" ref="B66"/>
+    <hyperlink r:id="rId54" ref="B67"/>
+    <hyperlink r:id="rId55" ref="B68"/>
+    <hyperlink r:id="rId56" ref="B69"/>
+    <hyperlink r:id="rId57" ref="B70"/>
+    <hyperlink r:id="rId58" ref="B71"/>
+    <hyperlink r:id="rId59" ref="B72"/>
+    <hyperlink r:id="rId60" ref="B73"/>
+    <hyperlink r:id="rId61" ref="B74"/>
+    <hyperlink r:id="rId62" ref="B75"/>
+    <hyperlink r:id="rId63" ref="B76"/>
+    <hyperlink r:id="rId64" ref="B77"/>
+    <hyperlink r:id="rId65" ref="B78"/>
+    <hyperlink r:id="rId66" ref="B79"/>
+    <hyperlink r:id="rId67" ref="B80"/>
+    <hyperlink r:id="rId68" ref="B81"/>
+    <hyperlink r:id="rId69" ref="B83"/>
+    <hyperlink r:id="rId70" ref="B84"/>
+    <hyperlink r:id="rId71" ref="B85"/>
+    <hyperlink r:id="rId72" ref="B86"/>
+    <hyperlink r:id="rId73" ref="B87"/>
+    <hyperlink r:id="rId74" ref="B88"/>
+    <hyperlink r:id="rId75" ref="B89"/>
+    <hyperlink r:id="rId76" ref="B90"/>
+    <hyperlink r:id="rId77" ref="B91"/>
+    <hyperlink r:id="rId78" ref="B92"/>
+    <hyperlink r:id="rId79" ref="B93"/>
+    <hyperlink r:id="rId80" ref="B94"/>
+    <hyperlink r:id="rId81" ref="B95"/>
+    <hyperlink r:id="rId82" ref="B96"/>
+    <hyperlink r:id="rId83" ref="B97"/>
+    <hyperlink r:id="rId84" ref="B98"/>
+    <hyperlink r:id="rId85" ref="B100"/>
+    <hyperlink r:id="rId86" ref="B101"/>
+    <hyperlink r:id="rId87" ref="B102"/>
+    <hyperlink r:id="rId88" ref="B103"/>
+    <hyperlink r:id="rId89" ref="B104"/>
+    <hyperlink r:id="rId90" ref="B105"/>
+    <hyperlink r:id="rId91" ref="B106"/>
+    <hyperlink r:id="rId92" ref="B108"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId93"/>
 </worksheet>
 </file>
--- a/Assignment/00. Question Bank.xlsx
+++ b/Assignment/00. Question Bank.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="270">
   <si>
     <t>Question Heading</t>
   </si>
@@ -662,6 +662,165 @@
   </si>
   <si>
     <t>Trie (Medium)</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t>DP (Easy)</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/climbing-stairs/</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber/</t>
+  </si>
+  <si>
+    <t>Unique Paths</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-paths/</t>
+  </si>
+  <si>
+    <t>DP (Medium)</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/target-sum/</t>
+  </si>
+  <si>
+    <t>Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-equal-subset-sum/</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-increasing-subsequence/</t>
+  </si>
+  <si>
+    <t>Maximal Square</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximal-square/</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-subarray/</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change/</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/decode-ways/</t>
+  </si>
+  <si>
+    <t>Maximal Rectangle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximal-rectangle/</t>
+  </si>
+  <si>
+    <t>DP (Hard)</t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/edit-distance/</t>
+  </si>
+  <si>
+    <t>Word Break - II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-break-ii/</t>
+  </si>
+  <si>
+    <t>Island Perimeter</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/island-perimeter/</t>
+  </si>
+  <si>
+    <t>Graphs (Easy)</t>
+  </si>
+  <si>
+    <t>Surrounded Regions</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/surrounded-regions/</t>
+  </si>
+  <si>
+    <t>Graphs (Medium)</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-islands/</t>
+  </si>
+  <si>
+    <t>Max Area of Island</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-area-of-island/</t>
+  </si>
+  <si>
+    <t>Shortest Path in Binary Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-path-in-binary-matrix/</t>
+  </si>
+  <si>
+    <t>Rotting Oranges</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotting-oranges/</t>
+  </si>
+  <si>
+    <t>Redundant Connection</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/redundant-connection/</t>
+  </si>
+  <si>
+    <t>Longest Path in a Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-increasing-path-in-a-matrix/</t>
+  </si>
+  <si>
+    <t>Graphs (Hard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
@@ -762,10 +921,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1981,57 +2140,57 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2042,7 +2201,7 @@
       <c r="B106" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2056,7 +2215,7 @@
       <c r="B108" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2064,82 +2223,271 @@
       <c r="C109" s="5"/>
     </row>
     <row r="110">
-      <c r="C110" s="5"/>
+      <c r="A110" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="111">
-      <c r="C111" s="5"/>
+      <c r="A111" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="112">
-      <c r="C112" s="5"/>
+      <c r="A112" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="113">
-      <c r="C113" s="5"/>
+      <c r="A113" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="114">
-      <c r="C114" s="5"/>
+      <c r="A114" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="115">
-      <c r="C115" s="5"/>
+      <c r="A115" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="116">
-      <c r="C116" s="5"/>
+      <c r="A116" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="117">
-      <c r="C117" s="5"/>
+      <c r="A117" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="118">
-      <c r="C118" s="5"/>
+      <c r="A118" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="119">
-      <c r="C119" s="5"/>
+      <c r="A119" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="120">
-      <c r="C120" s="5"/>
+      <c r="A120" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="121">
-      <c r="C121" s="5"/>
+      <c r="A121" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="122">
-      <c r="C122" s="5"/>
+      <c r="A122" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="123">
-      <c r="C123" s="5"/>
+      <c r="A123" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="124">
-      <c r="C124" s="5"/>
+      <c r="A124" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="125">
       <c r="C125" s="5"/>
     </row>
     <row r="126">
-      <c r="C126" s="5"/>
+      <c r="A126" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="127">
-      <c r="C127" s="5"/>
+      <c r="A127" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="128">
-      <c r="C128" s="5"/>
+      <c r="A128" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="129">
-      <c r="C129" s="5"/>
+      <c r="A129" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="130">
-      <c r="C130" s="5"/>
+      <c r="A130" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="131">
-      <c r="C131" s="5"/>
+      <c r="A131" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="132">
-      <c r="C132" s="5"/>
+      <c r="A132" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="133">
-      <c r="C133" s="5"/>
+      <c r="A133" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="134">
-      <c r="C134" s="5"/>
+      <c r="C134" s="10"/>
     </row>
     <row r="135">
-      <c r="C135" s="5"/>
+      <c r="B135" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" s="10">
+        <v>115.0</v>
+      </c>
     </row>
     <row r="136">
       <c r="C136" s="5"/>
@@ -4780,6 +5128,12 @@
     </row>
     <row r="1015">
       <c r="C1015" s="5"/>
+    </row>
+    <row r="1016">
+      <c r="C1016" s="5"/>
+    </row>
+    <row r="1017">
+      <c r="C1017" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4875,7 +5229,30 @@
     <hyperlink r:id="rId90" ref="B105"/>
     <hyperlink r:id="rId91" ref="B106"/>
     <hyperlink r:id="rId92" ref="B108"/>
+    <hyperlink r:id="rId93" ref="B110"/>
+    <hyperlink r:id="rId94" ref="B111"/>
+    <hyperlink r:id="rId95" ref="B112"/>
+    <hyperlink r:id="rId96" ref="B113"/>
+    <hyperlink r:id="rId97" ref="B114"/>
+    <hyperlink r:id="rId98" ref="B115"/>
+    <hyperlink r:id="rId99" ref="B116"/>
+    <hyperlink r:id="rId100" ref="B117"/>
+    <hyperlink r:id="rId101" ref="B118"/>
+    <hyperlink r:id="rId102" ref="B119"/>
+    <hyperlink r:id="rId103" ref="B120"/>
+    <hyperlink r:id="rId104" ref="B121"/>
+    <hyperlink r:id="rId105" ref="B122"/>
+    <hyperlink r:id="rId106" ref="B123"/>
+    <hyperlink r:id="rId107" ref="B124"/>
+    <hyperlink r:id="rId108" ref="B126"/>
+    <hyperlink r:id="rId109" ref="B127"/>
+    <hyperlink r:id="rId110" ref="B128"/>
+    <hyperlink r:id="rId111" ref="B129"/>
+    <hyperlink r:id="rId112" ref="B130"/>
+    <hyperlink r:id="rId113" ref="B131"/>
+    <hyperlink r:id="rId114" ref="B132"/>
+    <hyperlink r:id="rId115" ref="B133"/>
   </hyperlinks>
-  <drawing r:id="rId93"/>
+  <drawing r:id="rId116"/>
 </worksheet>
 </file>